--- a/biology/Microbiologie/Nitrosomonas/Nitrosomonas.xlsx
+++ b/biology/Microbiologie/Nitrosomonas/Nitrosomonas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nitrosomonas est un genre de bactérie chimiotrophe de la famille des Nitrosomonadaceae.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nitrosomonas Vinogradski, 1892[1].
-Étymologie
-L'étymologie de ce genre Nitrosomonas est la suivante : Ni.tro.so.mo’nas. L. masc. adj. nitrosus, plein de bicarbonate de soude, qu'il faut comprendre ici comme nitreux; L. fem. n. monas, une unité, monère; N.L. fem. n. Nitrosomonas, la monère nitreuse, i.e., la monère produisant du nitrite[1]. Le nom a été validé en 1980 par l'ICSP lors de l'établissement de la liste des noms approuvés de bactéries[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Nitrosomonas Vinogradski, 1892.
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Conditions de culture</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les conditions de culture optimales de Nitrosomonas sont un pH optimum entre 6.0-9.0 et des températures variant entre 20 et 40 °C
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de ce genre Nitrosomonas est la suivante : Ni.tro.so.mo’nas. L. masc. adj. nitrosus, plein de bicarbonate de soude, qu'il faut comprendre ici comme nitreux; L. fem. n. monas, une unité, monère; N.L. fem. n. Nitrosomonas, la monère nitreuse, i.e., la monère produisant du nitrite. Le nom a été validé en 1980 par l'ICSP lors de l'établissement de la liste des noms approuvés de bactéries.
 </t>
         </is>
       </c>
@@ -572,13 +590,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Caractères microbiologiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plupart des espèces sont motiles grâce à un flagelle situé dans les régions polaires.
-Les Nitrosomonas possèdent des membranes qui génèrent de l'énergie et qui forment de fins tubes allongés à l'intérieur des cellules. Ces membranes utilisent les électrons issus de l'oxydation d'ammoniac pour produire l'énergie. Il obtient le carbone qu'il exige de l'atmosphère via la fixation du carbone, qui convertit le carbone en forme gazeuse dans le carbone attaché.
+          <t>Conditions de culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions de culture optimales de Nitrosomonas sont un pH optimum entre 6.0-9.0 et des températures variant entre 20 et 40 °C
 </t>
         </is>
       </c>
@@ -604,12 +623,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre se rencontre dans le sol, les eaux usées, l'eau douce, tout particulièrement dans les zones polluées qui contiennent de hauts niveaux de composés azotés.
+          <t>Caractères microbiologiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des espèces sont motiles grâce à un flagelle situé dans les régions polaires.
+Les Nitrosomonas possèdent des membranes qui génèrent de l'énergie et qui forment de fins tubes allongés à l'intérieur des cellules. Ces membranes utilisent les électrons issus de l'oxydation d'ammoniac pour produire l'énergie. Il obtient le carbone qu'il exige de l'atmosphère via la fixation du carbone, qui convertit le carbone en forme gazeuse dans le carbone attaché.
 </t>
         </is>
       </c>
@@ -635,10 +657,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre se rencontre dans le sol, les eaux usées, l'eau douce, tout particulièrement dans les zones polluées qui contiennent de hauts niveaux de composés azotés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nitrosomonas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nitrosomonas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Utilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces bactéries rares oxydent l'ammoniac en nitrites comme processus métabolique. Les Nitrosomonas sont utilisées dans le traitement des déchets industriels, des eaux usées et dans la bioremédiation. Ils sont importants dans le cycle de l'azote en augmentant la disponibilité d'azote aux plantes et en limitant la fixation de dioxyde de carbone.
 </t>
